--- a/数据整理/stocks/A股/深证主板/002129-TCL中环.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-TCL中环.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>412</v>
+      </c>
+      <c r="D2" t="n">
+        <v>213.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -16128,56 +16180,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>213.89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002129-TCL中环.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-TCL中环.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>157.83</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>412</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>213.89</v>
       </c>
     </row>
@@ -515,6 +532,9700 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H255"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>137.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.8810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.4098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.6754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016709</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3760</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3641</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2456</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1424</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9387</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8534</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7408</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6569</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4745</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159875</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏中小企业100ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014482</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>562300</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银华中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516580</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>申万菱信中小企业100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>016091</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇泉匠心智选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012328</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012562</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014483</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>广发中小企业300ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>015537</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>红塔红土新能源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>78.44</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>012561</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>013453</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014360</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>红塔红土稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>41.61</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>012329</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>天弘中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>014361</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>红塔红土稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>41.61</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>015685</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>016092</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>汇泉匠心智选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>016915</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>016916</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>015538</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>红塔红土新能源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>78.44</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>申万菱信中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>012872</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15448,7 +25159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
